--- a/translation/xlsx/_zmeak_018_vm00_n01.xlsx
+++ b/translation/xlsx/_zmeak_018_vm00_n01.xlsx
@@ -450,7 +450,7 @@
     <t xml:space="preserve"> But... I don't know if she forgave Satoshi-kun because of what I did.</t>
   </si>
   <si>
-    <t xml:space="preserve">그렇지만, 마귀할멈이 나의 결단으로 정말로 사토시 군을 용서했는지는 몰라. </t>
+    <t xml:space="preserve">그렇지만, 내가 책임을 진 걸로 마귀할멈이 정말 사토시 군을 용서했는지는 몰라. </t>
   </si>
   <si>
     <t>......하지만 마귀할멈이 정말 내 구실로 사토시 군을 용서했는지는 모르겠어.</t>
